--- a/biology/Botanique/Betula_costata/Betula_costata.xlsx
+++ b/biology/Botanique/Betula_costata/Betula_costata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bouleau de Mandchourie, Betula costata,  est une espèce de Bouleau originaire de Mandchourie en Chine ; on le trouve aussi en Corée ou en Russie dans la région du Kraï du Primorié.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Betula ulmifolia
 Betula ermanii</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peu commun peut mesurer jusqu'à 15 m de haut (20 m dans son milieu naturel). Il est avant tout intéressant pour son écorce blanc crème parchemineuse avec des nuances jaunâtres ou rosées se desquamant harmonieusement.
 À l'automne, il prend des teintes jaunes nuancées.
@@ -574,7 +590,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Betula  platyphylla est également appelé Bouleau de Mandchourie.
 </t>
